--- a/biology/Médecine/Paul_Nogier/Paul_Nogier.xlsx
+++ b/biology/Médecine/Paul_Nogier/Paul_Nogier.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Paul Nogier, né le 3 juillet 1908 à Lyon et mort le 15 mai 1996 dans la même ville[1], est un médecin français homéopathe et acupuncteur, connu pour avoir développé l'auriculothérapie.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Paul Nogier, né le 3 juillet 1908 à Lyon et mort le 15 mai 1996 dans la même ville, est un médecin français homéopathe et acupuncteur, connu pour avoir développé l'auriculothérapie.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Paul Nogier est né à Lyon en 1908. Il est le fils de Thomas Nogier, professeur de physique médicale à la faculté de médecine de Lyon. Il étudie la physique pendant trois ans avant de s'intéresser à la médecine, l'homéopathie, l'acupuncture et les manipulations vertébrales.
 Après la visite de quelques patients qui étaient passés chez une guérisseuse du nom de Mme Barrin, Paul Nogier, s'intéresse à la méthode de celle-ci, ce qui donnera naissance en 1951 à l'auriculothérapie. En 1956 il dessine sa première carte de localisation des points réflexes.
@@ -548,7 +562,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>TRAITE D'AURICULOTHERAPIE, Paul Nogier, 1 avril 1969
 POINTS REFLEXES AURICULAIRES, Paul Nogier, 1 juillet 1987
